--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C3-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C3-Itgb2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H2">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I2">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J2">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N2">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O2">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P2">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q2">
-        <v>2597.969797995376</v>
+        <v>0.03584643900866667</v>
       </c>
       <c r="R2">
-        <v>23381.72818195838</v>
+        <v>0.322617951078</v>
       </c>
       <c r="S2">
-        <v>0.09642492660497377</v>
+        <v>6.326321369853797E-06</v>
       </c>
       <c r="T2">
-        <v>0.09642492660497377</v>
+        <v>6.326321369853795E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H3">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I3">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J3">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.155386</v>
       </c>
       <c r="O3">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P3">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q3">
-        <v>15.76825829771733</v>
+        <v>0.2141061201746667</v>
       </c>
       <c r="R3">
-        <v>141.914324679456</v>
+        <v>1.926955081572</v>
       </c>
       <c r="S3">
-        <v>0.0005852466607652107</v>
+        <v>3.778629512264796E-05</v>
       </c>
       <c r="T3">
-        <v>0.0005852466607652107</v>
+        <v>3.778629512264795E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H4">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I4">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J4">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N4">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O4">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P4">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q4">
-        <v>0.865572411312</v>
+        <v>0.00454476045</v>
       </c>
       <c r="R4">
-        <v>7.790151701808</v>
+        <v>0.04090284405</v>
       </c>
       <c r="S4">
-        <v>3.212614569132044E-05</v>
+        <v>8.020773039338725E-07</v>
       </c>
       <c r="T4">
-        <v>3.212614569132044E-05</v>
+        <v>8.020773039338722E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H5">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I5">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J5">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N5">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O5">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P5">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q5">
-        <v>4344.754536786383</v>
+        <v>32.299469087178</v>
       </c>
       <c r="R5">
-        <v>39102.79083107745</v>
+        <v>290.695221784602</v>
       </c>
       <c r="S5">
-        <v>0.1612577011670863</v>
+        <v>0.00570033808579266</v>
       </c>
       <c r="T5">
-        <v>0.1612577011670863</v>
+        <v>0.005700338085792659</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>239.063137</v>
       </c>
       <c r="I6">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J6">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N6">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O6">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P6">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q6">
-        <v>5056.471665500414</v>
+        <v>5.138237128682556</v>
       </c>
       <c r="R6">
-        <v>45508.24498950373</v>
+        <v>46.24413415814301</v>
       </c>
       <c r="S6">
-        <v>0.1876734323864048</v>
+        <v>0.0009068164160658075</v>
       </c>
       <c r="T6">
-        <v>0.1876734323864048</v>
+        <v>0.0009068164160658073</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>239.063137</v>
       </c>
       <c r="I7">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J7">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.155386</v>
       </c>
       <c r="O7">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P7">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q7">
         <v>30.69002240065356</v>
@@ -883,10 +883,10 @@
         <v>276.210201605882</v>
       </c>
       <c r="S7">
-        <v>0.001139075273227363</v>
+        <v>0.005416296567355129</v>
       </c>
       <c r="T7">
-        <v>0.001139075273227363</v>
+        <v>0.00541629656735513</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>239.063137</v>
       </c>
       <c r="I8">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J8">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N8">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O8">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P8">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q8">
-        <v>1.684677926439</v>
+        <v>0.651447048325</v>
       </c>
       <c r="R8">
-        <v>15.162101337951</v>
+        <v>5.863023434925001</v>
       </c>
       <c r="S8">
-        <v>6.252764968062541E-05</v>
+        <v>0.0001149699523054499</v>
       </c>
       <c r="T8">
-        <v>6.252764968062541E-05</v>
+        <v>0.0001149699523054499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>239.063137</v>
       </c>
       <c r="I9">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J9">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N9">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O9">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P9">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q9">
-        <v>8456.267746363474</v>
+        <v>4629.813613015994</v>
       </c>
       <c r="R9">
-        <v>76106.40971727126</v>
+        <v>41668.32251714394</v>
       </c>
       <c r="S9">
-        <v>0.3138585357783117</v>
+        <v>0.8170878226253286</v>
       </c>
       <c r="T9">
-        <v>0.3138585357783117</v>
+        <v>0.8170878226253286</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H10">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I10">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J10">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N10">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O10">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P10">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q10">
-        <v>21.98169944304833</v>
+        <v>0.02222611960677778</v>
       </c>
       <c r="R10">
-        <v>197.835294987435</v>
+        <v>0.200035076461</v>
       </c>
       <c r="S10">
-        <v>0.0008158615843355932</v>
+        <v>3.922553517890278E-06</v>
       </c>
       <c r="T10">
-        <v>0.0008158615843355932</v>
+        <v>3.922553517890276E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H11">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I11">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J11">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.155386</v>
       </c>
       <c r="O11">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P11">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q11">
-        <v>0.1334169145877778</v>
+        <v>0.1327537230237778</v>
       </c>
       <c r="R11">
-        <v>1.20075223129</v>
+        <v>1.194783507214</v>
       </c>
       <c r="S11">
-        <v>4.951834392730468E-06</v>
+        <v>2.342890223182076E-05</v>
       </c>
       <c r="T11">
-        <v>4.951834392730468E-06</v>
+        <v>2.342890223182076E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H12">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I12">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J12">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N12">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O12">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P12">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q12">
-        <v>0.007323700455</v>
+        <v>0.002817919775</v>
       </c>
       <c r="R12">
-        <v>0.065913304095</v>
+        <v>0.025361277975</v>
       </c>
       <c r="S12">
-        <v>2.718227438190739E-07</v>
+        <v>4.973176299828837E-07</v>
       </c>
       <c r="T12">
-        <v>2.718227438190739E-07</v>
+        <v>4.973176299828837E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H13">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I13">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J13">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N13">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O13">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P13">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q13">
-        <v>36.761431351185</v>
+        <v>20.026866908411</v>
       </c>
       <c r="R13">
-        <v>330.8528821606649</v>
+        <v>180.241802175699</v>
       </c>
       <c r="S13">
-        <v>0.001364418602043389</v>
+        <v>0.003534420701126455</v>
       </c>
       <c r="T13">
-        <v>0.001364418602043389</v>
+        <v>0.003534420701126454</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H14">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I14">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J14">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N14">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O14">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P14">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q14">
-        <v>2381.531897752922</v>
+        <v>1.043004818761111</v>
       </c>
       <c r="R14">
-        <v>21433.7870797763</v>
+        <v>9.38704336885</v>
       </c>
       <c r="S14">
-        <v>0.08839172750407708</v>
+        <v>0.0001840736166901711</v>
       </c>
       <c r="T14">
-        <v>0.08839172750407706</v>
+        <v>0.000184073616690171</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H15">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I15">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J15">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.155386</v>
       </c>
       <c r="O15">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P15">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q15">
-        <v>14.45459840872556</v>
+        <v>6.229732192211111</v>
       </c>
       <c r="R15">
-        <v>130.09138567853</v>
+        <v>56.0675897299</v>
       </c>
       <c r="S15">
-        <v>0.0005364895279926628</v>
+        <v>0.001099447782986833</v>
       </c>
       <c r="T15">
-        <v>0.0005364895279926627</v>
+        <v>0.001099447782986833</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H16">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I16">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J16">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N16">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O16">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P16">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q16">
-        <v>0.7934612284350002</v>
+        <v>0.13223648375</v>
       </c>
       <c r="R16">
-        <v>7.141151055915001</v>
+        <v>1.19012835375</v>
       </c>
       <c r="S16">
-        <v>2.944970367814622E-05</v>
+        <v>2.333761779851242E-05</v>
       </c>
       <c r="T16">
-        <v>2.944970367814622E-05</v>
+        <v>2.333761779851242E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H17">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I17">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J17">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N17">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O17">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P17">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q17">
-        <v>3982.791303135045</v>
+        <v>939.8005166763501</v>
       </c>
       <c r="R17">
-        <v>35845.1217282154</v>
+        <v>8458.204650087151</v>
       </c>
       <c r="S17">
-        <v>0.1478232577545954</v>
+        <v>0.1658597131673743</v>
       </c>
       <c r="T17">
-        <v>0.1478232577545954</v>
+        <v>0.1658597131673743</v>
       </c>
     </row>
   </sheetData>
